--- a/Program/Data Akuisisi/Kalkulasi PID ZN.xlsx
+++ b/Program/Data Akuisisi/Kalkulasi PID ZN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Udin\Kuliah\6. MAGANG\Stechoq\AGV Project\Program\Data Akuisisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BFBD4-EC64-4149-80E2-B400E25D52AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7005960A-18B0-4D5A-BCDE-7E599D5B879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B97531D7-FD45-4BD8-81AD-7B0CBC1EAA46}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B97531D7-FD45-4BD8-81AD-7B0CBC1EAA46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0409999999999999</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f>0.6*A3</f>
@@ -476,19 +476,19 @@
       </c>
       <c r="D3" s="1">
         <f>0.5*B3</f>
-        <v>0.52049999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1">
         <f>0.125*B3</f>
-        <v>0.13012499999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F3" s="1">
         <f>C3/D3</f>
-        <v>3.4582132564841497</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="G3" s="1">
-        <f>C3*E3</f>
-        <v>0.23422499999999996</v>
+        <f>A3*E3</f>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
